--- a/data/trans_dic/P23_R-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P23_R-Clase-trans_dic.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.2797570726335213</v>
+        <v>0.2781225095542482</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.2944023245168789</v>
+        <v>0.2959476200066674</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.2079494639607381</v>
+        <v>0.2110365701329916</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.2484928275073687</v>
+        <v>0.251214898696446</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.2609174952515923</v>
+        <v>0.2625900896671485</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.1525649543137255</v>
+        <v>0.152341563712863</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.2776921188379761</v>
+        <v>0.276333972507638</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.2919761790877446</v>
+        <v>0.2925815696263421</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.1967897110315636</v>
+        <v>0.1968365269771323</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.3627177537402206</v>
+        <v>0.3679289209916073</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.3905345460828248</v>
+        <v>0.3912445024546695</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.2962457666692822</v>
+        <v>0.2991881312274373</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.3496509968516086</v>
+        <v>0.3538567800747</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.3709461120463157</v>
+        <v>0.370211420364812</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.2395243931878362</v>
+        <v>0.2370940660560968</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.3455871996330235</v>
+        <v>0.3455106002822922</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.3650285878845088</v>
+        <v>0.3671421494474754</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.25333259313503</v>
+        <v>0.2573633123689619</v>
       </c>
     </row>
     <row r="7">
@@ -784,31 +784,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.3205512159269548</v>
+        <v>0.317951431076705</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.3131097968618377</v>
+        <v>0.3101863326817906</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.235574009439942</v>
+        <v>0.2335635905646791</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.3071272861546262</v>
+        <v>0.3061661433318675</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.3236002761740845</v>
+        <v>0.3183922492045853</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.2238414024860295</v>
+        <v>0.2272557174456074</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.3264955372355853</v>
+        <v>0.3288972330642069</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.3292480556441703</v>
+        <v>0.3227295467865771</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.2409625440907145</v>
+        <v>0.240336898835529</v>
       </c>
     </row>
     <row r="9">
@@ -819,31 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.4233956234822858</v>
+        <v>0.4234321016931409</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.4096794937184638</v>
+        <v>0.4141449271848643</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.3287845433490176</v>
+        <v>0.3311242666832158</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.4079249403113461</v>
+        <v>0.4071829558108575</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.4320599180979917</v>
+        <v>0.4351449025702813</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.320548864096951</v>
+        <v>0.3179970115516705</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.4005966883202671</v>
+        <v>0.4030212708408853</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.4011785872375484</v>
+        <v>0.400747993469516</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.3092882231219613</v>
+        <v>0.3092240985621671</v>
       </c>
     </row>
     <row r="10">
@@ -893,31 +893,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.4304433914144726</v>
+        <v>0.4295423184599276</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.3950038378397922</v>
+        <v>0.3924158798658927</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.3745991113517295</v>
+        <v>0.3730107120341308</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.209826300954621</v>
+        <v>0.2073334779378845</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.2682957438031939</v>
+        <v>0.2740652244103816</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.2455828523731535</v>
+        <v>0.243852956685835</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.389516258940367</v>
+        <v>0.3888585463452872</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.3697832642393089</v>
+        <v>0.370860989345185</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.3520343185852907</v>
+        <v>0.3531568257736463</v>
       </c>
     </row>
     <row r="12">
@@ -928,31 +928,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.5134323545139765</v>
+        <v>0.5173429582533688</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.4743572700310168</v>
+        <v>0.4759631535183921</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.4619156526077492</v>
+        <v>0.4565838907845644</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.3497684810210311</v>
+        <v>0.3501547008346676</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.3857603345632585</v>
+        <v>0.3880464396601521</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.390481387650606</v>
+        <v>0.3942303382033486</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.4648342640135241</v>
+        <v>0.4640180155679096</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.4347294210406218</v>
+        <v>0.4403905252506922</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.4293106030228583</v>
+        <v>0.4279272979774009</v>
       </c>
     </row>
     <row r="13">
@@ -1002,31 +1002,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.4302873945979126</v>
+        <v>0.4276041035097792</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.402497015510025</v>
+        <v>0.4014174147100943</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.3519988303050228</v>
+        <v>0.3523369124528459</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.3045929444750987</v>
+        <v>0.2992655646657738</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.3328592886982508</v>
+        <v>0.3371584090021725</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.3509398756996372</v>
+        <v>0.3504047773732816</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.3873953390762931</v>
+        <v>0.3915602590387425</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.3848030851650281</v>
+        <v>0.385775843940132</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.3613478819837608</v>
+        <v>0.3599356416179261</v>
       </c>
     </row>
     <row r="15">
@@ -1037,31 +1037,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.483067829616937</v>
+        <v>0.4839414691557994</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.4612905654347186</v>
+        <v>0.4619132212200314</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.4125691988493382</v>
+        <v>0.4082960669603675</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.3753679292969767</v>
+        <v>0.3705634407690495</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.4082972072057823</v>
+        <v>0.4104860576652797</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.420164889285481</v>
+        <v>0.4159246684925921</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.4351436263044814</v>
+        <v>0.4363995728730456</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.4317993940975122</v>
+        <v>0.4317849078221165</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.4042782455162499</v>
+        <v>0.4034438101427137</v>
       </c>
     </row>
     <row r="16">
@@ -1111,31 +1111,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.477492478409879</v>
+        <v>0.4852414156138551</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.3785343754304032</v>
+        <v>0.3859587826079753</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.3542429373225107</v>
+        <v>0.3521147678677179</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.2767320435505664</v>
+        <v>0.2816899007596823</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.2502632002144468</v>
+        <v>0.2521395328102596</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.2567031756336922</v>
+        <v>0.2600892786695627</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.3658710134156873</v>
+        <v>0.3666308402781223</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.3166367648464951</v>
+        <v>0.3143008170827586</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.3146248703616779</v>
+        <v>0.3129559923982656</v>
       </c>
     </row>
     <row r="18">
@@ -1146,31 +1146,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.5859158166663385</v>
+        <v>0.5890832460044175</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.471282736864429</v>
+        <v>0.4740611388480962</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.4329797306650987</v>
+        <v>0.4324564947490595</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.3604266253713918</v>
+        <v>0.3605135914894679</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.3184823897683594</v>
+        <v>0.3199169754886113</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.3300836909969355</v>
+        <v>0.330109686223991</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.4343060622113785</v>
+        <v>0.4343457049338139</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.369059454661704</v>
+        <v>0.368964382682359</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.366216353700339</v>
+        <v>0.3669221158429029</v>
       </c>
     </row>
     <row r="19">
@@ -1220,31 +1220,31 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.2463209447480177</v>
+        <v>0.2455210348521045</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.1902408476431998</v>
+        <v>0.1924048358638014</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.2084591882640443</v>
+        <v>0.2024322533641012</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.1181152112854433</v>
+        <v>0.1171371911687219</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.1287163478121235</v>
+        <v>0.1267205486955752</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.1396841019443275</v>
+        <v>0.1390330144166103</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.1484576904806436</v>
+        <v>0.1493721753942174</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.1451670718703582</v>
+        <v>0.1460116225430917</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.1583810416071695</v>
+        <v>0.1591292070590765</v>
       </c>
     </row>
     <row r="21">
@@ -1255,31 +1255,31 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.3469324937435335</v>
+        <v>0.3473224357260427</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.2929280480436786</v>
+        <v>0.2904359264028661</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.310904091175185</v>
+        <v>0.3062515344062552</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.1551293852729328</v>
+        <v>0.1543115203999539</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.1703694309186586</v>
+        <v>0.1696812237590085</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.1846793020768566</v>
+        <v>0.1851224080286145</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.1849463244414936</v>
+        <v>0.1852602846681294</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.1852664125604426</v>
+        <v>0.1870700379940367</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.2019954738598078</v>
+        <v>0.2002557985620373</v>
       </c>
     </row>
     <row r="22">
@@ -1329,31 +1329,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.4036710043129542</v>
+        <v>0.4058730625850749</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.3788670046761088</v>
+        <v>0.3778994252161022</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.334851335427406</v>
+        <v>0.3324164024390929</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.2412346291449561</v>
+        <v>0.2409692107123431</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.2595137325452733</v>
+        <v>0.2594960210137995</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.2481450066659294</v>
+        <v>0.2475842957654579</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.3265321113881745</v>
+        <v>0.3264256923655918</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.3223906991849818</v>
+        <v>0.3219878032610818</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.2942802862519262</v>
+        <v>0.2931534630269644</v>
       </c>
     </row>
     <row r="24">
@@ -1364,31 +1364,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.4398123876626533</v>
+        <v>0.4407075710335079</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.4131007134362895</v>
+        <v>0.4128149582706974</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.3682222606398837</v>
+        <v>0.3665649075614631</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.2712171295892088</v>
+        <v>0.2706275663859452</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.2906696996668385</v>
+        <v>0.2913523089260178</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.277017171693671</v>
+        <v>0.2774357670648301</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.3499891597380353</v>
+        <v>0.3493909936183638</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.3458189537972025</v>
+        <v>0.3456875352765427</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.3164366959861227</v>
+        <v>0.3156975696954951</v>
       </c>
     </row>
     <row r="25">
@@ -1619,31 +1619,31 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>132542</v>
+        <v>131768</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>128716</v>
+        <v>129392</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>89229</v>
+        <v>90554</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>76208</v>
+        <v>77043</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>82047</v>
+        <v>82573</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>52948</v>
+        <v>52871</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>216727</v>
+        <v>215667</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>219468</v>
+        <v>219923</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>152738</v>
+        <v>152774</v>
       </c>
     </row>
     <row r="7">
@@ -1654,31 +1654,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>171847</v>
+        <v>174316</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>170746</v>
+        <v>171056</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>127117</v>
+        <v>128379</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>107231</v>
+        <v>108521</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>116645</v>
+        <v>116414</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>83128</v>
+        <v>82285</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>269716</v>
+        <v>269656</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>274379</v>
+        <v>275968</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>196623</v>
+        <v>199752</v>
       </c>
     </row>
     <row r="8">
@@ -1763,31 +1763,31 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>117621</v>
+        <v>116667</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>131129</v>
+        <v>129905</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>88612</v>
+        <v>87856</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>114210</v>
+        <v>113852</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>109380</v>
+        <v>107620</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>83100</v>
+        <v>84368</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>241215</v>
+        <v>242989</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>249178</v>
+        <v>244244</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>180096</v>
+        <v>179628</v>
       </c>
     </row>
     <row r="11">
@@ -1798,31 +1798,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>155358</v>
+        <v>155372</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>171573</v>
+        <v>173443</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>123674</v>
+        <v>124554</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>151693</v>
+        <v>151417</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>146041</v>
+        <v>147084</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>119002</v>
+        <v>118055</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>295960</v>
+        <v>297752</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>303615</v>
+        <v>303289</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>231162</v>
+        <v>231114</v>
       </c>
     </row>
     <row r="12">
@@ -1907,31 +1907,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>233468</v>
+        <v>232979</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>248621</v>
+        <v>246992</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>195509</v>
+        <v>194680</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>35205</v>
+        <v>34787</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>69792</v>
+        <v>71292</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>40797</v>
+        <v>40510</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>276623</v>
+        <v>276156</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>328938</v>
+        <v>329897</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>242212</v>
+        <v>242985</v>
       </c>
     </row>
     <row r="15">
@@ -1942,31 +1942,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>278480</v>
+        <v>280601</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>298568</v>
+        <v>299578</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>241080</v>
+        <v>238298</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>58685</v>
+        <v>58750</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>100347</v>
+        <v>100942</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>64868</v>
+        <v>65491</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>330112</v>
+        <v>329532</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>386711</v>
+        <v>391747</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>295381</v>
+        <v>294429</v>
       </c>
     </row>
     <row r="16">
@@ -2051,31 +2051,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>532840</v>
+        <v>529517</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>466083</v>
+        <v>464833</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>404367</v>
+        <v>404755</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>217566</v>
+        <v>213761</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>254857</v>
+        <v>258149</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>289507</v>
+        <v>289066</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>756436</v>
+        <v>764568</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>740223</v>
+        <v>742094</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>713200</v>
+        <v>710413</v>
       </c>
     </row>
     <row r="19">
@@ -2086,31 +2086,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>598199</v>
+        <v>599281</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>534165</v>
+        <v>534886</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>473949</v>
+        <v>469040</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>268120</v>
+        <v>264688</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>312617</v>
+        <v>314293</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>346614</v>
+        <v>343116</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>849670</v>
+        <v>852123</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>830627</v>
+        <v>830599</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>797933</v>
+        <v>796286</v>
       </c>
     </row>
     <row r="20">
@@ -2195,31 +2195,31 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>167387</v>
+        <v>170104</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>193278</v>
+        <v>197069</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>219881</v>
+        <v>218560</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>157392</v>
+        <v>160212</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>190334</v>
+        <v>191761</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>189230</v>
+        <v>191726</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>336348</v>
+        <v>337046</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>402487</v>
+        <v>399518</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>427217</v>
+        <v>424951</v>
       </c>
     </row>
     <row r="23">
@@ -2230,31 +2230,31 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>205396</v>
+        <v>206506</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>240635</v>
+        <v>242054</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>268753</v>
+        <v>268428</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>204993</v>
+        <v>205043</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>242217</v>
+        <v>243308</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>243323</v>
+        <v>243342</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>399261</v>
+        <v>399297</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>469123</v>
+        <v>469002</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>497271</v>
+        <v>498229</v>
       </c>
     </row>
     <row r="24">
@@ -2339,31 +2339,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>73196</v>
+        <v>72959</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>50772</v>
+        <v>51349</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>59858</v>
+        <v>58127</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>147498</v>
+        <v>146276</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>142792</v>
+        <v>140578</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>150807</v>
+        <v>150104</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>229503</v>
+        <v>230917</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>199784</v>
+        <v>200946</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>216471</v>
+        <v>217494</v>
       </c>
     </row>
     <row r="27">
@@ -2374,31 +2374,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>103094</v>
+        <v>103210</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>78177</v>
+        <v>77512</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>89275</v>
+        <v>87939</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>193719</v>
+        <v>192698</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>188999</v>
+        <v>188236</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>199385</v>
+        <v>199864</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>285912</v>
+        <v>286397</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>254970</v>
+        <v>257452</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>276082</v>
+        <v>273705</v>
       </c>
     </row>
     <row r="28">
@@ -2483,31 +2483,31 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>1319660</v>
+        <v>1326859</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>1296059</v>
+        <v>1292749</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>1133065</v>
+        <v>1124826</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>814920</v>
+        <v>814024</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>920792</v>
+        <v>920729</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>874998</v>
+        <v>873021</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>2170548</v>
+        <v>2169840</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>2246749</v>
+        <v>2243941</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>2033460</v>
+        <v>2025674</v>
       </c>
     </row>
     <row r="31">
@@ -2518,31 +2518,31 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>1437812</v>
+        <v>1440738</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>1413168</v>
+        <v>1412190</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>1245985</v>
+        <v>1240377</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>916205</v>
+        <v>914213</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>1031338</v>
+        <v>1033760</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>976806</v>
+        <v>978282</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>2326473</v>
+        <v>2322497</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>2410021</v>
+        <v>2409105</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>2186560</v>
+        <v>2181452</v>
       </c>
     </row>
     <row r="32">
